--- a/cavicam/camp2/camp2_psi.xlsx
+++ b/cavicam/camp2/camp2_psi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20412"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Win10 Pro x64\ownCloud - florian.wilms01@stud.uni-goettingen.de@owncloud.gwdg.de\EAM\04\msc\hydraulics\cavicam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\GWDG_owncloud\EAM\04\msc\hainich_hydraulics\cavicam\camp2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C768BD-1029-4E83-B334-9B90F4D3FD50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626100CF-71B6-42A7-92A8-26F8F12DC119}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="1000" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10560" tabRatio="1000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -23,26 +23,17 @@
     <sheet name="FREX_07" sheetId="16" r:id="rId8"/>
     <sheet name="FREX_08" sheetId="17" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="73">
   <si>
     <t>Description</t>
   </si>
@@ -268,9 +259,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm;@"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -353,7 +343,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -363,14 +353,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -654,14 +643,14 @@
       <selection activeCell="A40" sqref="A40:XFD40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="19.453125" customWidth="1"/>
-    <col min="3" max="3" width="22.81640625" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -673,34 +662,34 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>44</v>
       </c>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>45</v>
       </c>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>46</v>
       </c>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -712,24 +701,24 @@
       </c>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="2"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -743,7 +732,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -754,7 +743,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -765,7 +754,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -776,7 +765,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -787,7 +776,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -798,31 +787,31 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>15</v>
       </c>
@@ -836,7 +825,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -850,7 +839,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -864,7 +853,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -878,7 +867,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -892,7 +881,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -906,7 +895,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -920,7 +909,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -934,7 +923,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>13</v>
       </c>
@@ -948,7 +937,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -972,19 +961,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7B7B6D-700E-A440-995B-35421F52B2D3}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.453125" customWidth="1"/>
-    <col min="5" max="5" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>39</v>
       </c>
@@ -1013,7 +1002,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -1028,12 +1017,14 @@
       <c r="F2">
         <v>4.8</v>
       </c>
-      <c r="H2" s="9"/>
+      <c r="H2">
+        <v>4.8</v>
+      </c>
       <c r="I2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>51</v>
       </c>
@@ -1048,9 +1039,11 @@
       <c r="F3">
         <v>12.8</v>
       </c>
-      <c r="H3" s="9"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H3">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -1063,12 +1056,14 @@
       <c r="F4">
         <v>8.6999999999999993</v>
       </c>
-      <c r="H4" s="9"/>
+      <c r="H4">
+        <v>8.6999999999999993</v>
+      </c>
       <c r="I4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>51</v>
       </c>
@@ -1081,8 +1076,11 @@
       <c r="F5">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -1095,8 +1093,11 @@
       <c r="F6">
         <v>25.8</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H6">
+        <v>25.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -1109,8 +1110,11 @@
       <c r="F7">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>51</v>
       </c>
@@ -1123,8 +1127,11 @@
       <c r="F8">
         <v>25.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H8">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -1137,8 +1144,11 @@
       <c r="F9">
         <v>37</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H9">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -1151,8 +1161,11 @@
       <c r="F10">
         <v>39</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H10">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -1165,8 +1178,11 @@
       <c r="F11">
         <v>42</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H11">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -1179,8 +1195,11 @@
       <c r="F12">
         <v>45</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -1194,7 +1213,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -1207,8 +1226,11 @@
       <c r="F14">
         <v>48</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H14">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -1221,8 +1243,11 @@
       <c r="F15">
         <v>55</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H15">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -1235,8 +1260,11 @@
       <c r="F16">
         <v>55</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H16">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>51</v>
       </c>
@@ -1245,6 +1273,9 @@
       </c>
       <c r="C17" s="8">
         <v>45485.722222222219</v>
+      </c>
+      <c r="H17">
+        <v>65</v>
       </c>
       <c r="I17" t="s">
         <v>70</v>
@@ -1260,19 +1291,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{566F358E-BC2F-344F-A8C5-5E734B9DB712}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.453125" customWidth="1"/>
-    <col min="5" max="5" width="16.26953125" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>39</v>
       </c>
@@ -1301,7 +1332,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -1316,12 +1347,14 @@
       <c r="F2">
         <v>2.4</v>
       </c>
-      <c r="H2" s="9"/>
+      <c r="H2">
+        <v>2.4</v>
+      </c>
       <c r="I2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>52</v>
       </c>
@@ -1336,9 +1369,11 @@
       <c r="F3">
         <v>3.9</v>
       </c>
-      <c r="H3" s="9"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H3">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>52</v>
       </c>
@@ -1351,8 +1386,11 @@
       <c r="F4">
         <v>11.8</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H4">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -1365,8 +1403,11 @@
       <c r="F5">
         <v>13.2</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H5">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -1379,8 +1420,11 @@
       <c r="F6">
         <v>14.7</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H6">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>52</v>
       </c>
@@ -1393,8 +1437,11 @@
       <c r="F7">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -1407,8 +1454,11 @@
       <c r="F8">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>52</v>
       </c>
@@ -1421,8 +1471,11 @@
       <c r="F9">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H9">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -1435,8 +1488,11 @@
       <c r="F10">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H10">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>52</v>
       </c>
@@ -1449,8 +1505,11 @@
       <c r="F11">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H11">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -1463,8 +1522,11 @@
       <c r="F12">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -1477,8 +1539,11 @@
       <c r="F13">
         <v>36</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H13">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -1491,8 +1556,11 @@
       <c r="F14">
         <v>40</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H14">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -1505,8 +1573,11 @@
       <c r="F15">
         <v>42.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H15">
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -1519,8 +1590,11 @@
       <c r="F16">
         <v>47</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H16">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>52</v>
       </c>
@@ -1531,6 +1605,9 @@
         <v>45485.802083333336</v>
       </c>
       <c r="F17">
+        <v>63</v>
+      </c>
+      <c r="H17">
         <v>63</v>
       </c>
     </row>
@@ -1544,18 +1621,18 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.453125" customWidth="1"/>
-    <col min="5" max="5" width="16.26953125" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>39</v>
       </c>
@@ -1584,7 +1661,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -1599,12 +1676,14 @@
       <c r="F2">
         <v>3.4</v>
       </c>
-      <c r="H2" s="9"/>
+      <c r="H2">
+        <v>3.4</v>
+      </c>
       <c r="I2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -1619,9 +1698,11 @@
       <c r="F3">
         <v>12.5</v>
       </c>
-      <c r="H3" s="9"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H3">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -1634,9 +1715,11 @@
       <c r="F4">
         <v>14.5</v>
       </c>
-      <c r="H4" s="9"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H4">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>54</v>
       </c>
@@ -1649,8 +1732,11 @@
       <c r="F5">
         <v>15.8</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H5">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>54</v>
       </c>
@@ -1663,9 +1749,11 @@
       <c r="F6">
         <v>23</v>
       </c>
-      <c r="H6" s="9"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -1678,8 +1766,11 @@
       <c r="F7">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>54</v>
       </c>
@@ -1692,9 +1783,11 @@
       <c r="F8">
         <v>37</v>
       </c>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H8">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>54</v>
       </c>
@@ -1707,8 +1800,11 @@
       <c r="F9">
         <v>35.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H9">
+        <v>35.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -1721,8 +1817,11 @@
       <c r="F10">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H10">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>54</v>
       </c>
@@ -1735,8 +1834,11 @@
       <c r="F11">
         <v>38</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H11">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>54</v>
       </c>
@@ -1749,8 +1851,11 @@
       <c r="F12">
         <v>42</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>54</v>
       </c>
@@ -1763,8 +1868,11 @@
       <c r="F13">
         <v>50</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>54</v>
       </c>
@@ -1777,8 +1885,11 @@
       <c r="F14">
         <v>53</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H14">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -1789,6 +1900,9 @@
         <v>45485.628472222219</v>
       </c>
       <c r="F15">
+        <v>65</v>
+      </c>
+      <c r="H15">
         <v>65</v>
       </c>
       <c r="I15" t="s">
@@ -1805,18 +1919,18 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.453125" customWidth="1"/>
-    <col min="5" max="5" width="16.26953125" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>39</v>
       </c>
@@ -1845,7 +1959,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -1860,12 +1974,14 @@
       <c r="F2">
         <v>2.1</v>
       </c>
-      <c r="H2" s="9"/>
+      <c r="H2">
+        <v>2.1</v>
+      </c>
       <c r="I2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>53</v>
       </c>
@@ -1880,9 +1996,11 @@
       <c r="F3">
         <v>4</v>
       </c>
-      <c r="H3" s="9"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>53</v>
       </c>
@@ -1895,12 +2013,14 @@
       <c r="F4">
         <v>12.4</v>
       </c>
-      <c r="H4" s="9"/>
+      <c r="H4">
+        <v>12.4</v>
+      </c>
       <c r="I4">
         <v>16.5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>53</v>
       </c>
@@ -1913,9 +2033,11 @@
       <c r="F5">
         <v>14.6</v>
       </c>
-      <c r="H5" s="9"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H5">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>53</v>
       </c>
@@ -1928,9 +2050,11 @@
       <c r="F6">
         <v>18</v>
       </c>
-      <c r="H6" s="9"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>53</v>
       </c>
@@ -1943,9 +2067,11 @@
       <c r="F7">
         <v>27</v>
       </c>
-      <c r="H7" s="9"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>53</v>
       </c>
@@ -1958,9 +2084,11 @@
       <c r="F8">
         <v>33.5</v>
       </c>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H8">
+        <v>33.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -1973,9 +2101,11 @@
       <c r="F9">
         <v>34</v>
       </c>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H9">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -1988,9 +2118,11 @@
       <c r="F10">
         <v>35</v>
       </c>
-      <c r="H10" s="9"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H10">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -2003,9 +2135,11 @@
       <c r="F11">
         <v>37</v>
       </c>
-      <c r="H11" s="9"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H11">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>53</v>
       </c>
@@ -2018,9 +2152,11 @@
       <c r="F12">
         <v>41</v>
       </c>
-      <c r="H12" s="9"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>53</v>
       </c>
@@ -2033,9 +2169,11 @@
       <c r="F13">
         <v>49</v>
       </c>
-      <c r="H13" s="9"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H13">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>53</v>
       </c>
@@ -2048,9 +2186,11 @@
       <c r="F14">
         <v>59</v>
       </c>
-      <c r="H14" s="9"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H14">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -2061,6 +2201,9 @@
         <v>45485.628472222219</v>
       </c>
       <c r="F15">
+        <v>61</v>
+      </c>
+      <c r="H15">
         <v>61</v>
       </c>
     </row>
@@ -2071,22 +2214,22 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView zoomScale="94" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="H2" sqref="H2:H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.453125" customWidth="1"/>
-    <col min="5" max="5" width="16.26953125" customWidth="1"/>
-    <col min="9" max="9" width="40.1796875" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="9" max="9" width="40.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>39</v>
       </c>
@@ -2115,7 +2258,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -2127,14 +2270,14 @@
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
-      <c r="F2">
+      <c r="H2">
         <v>9.3000000000000007</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -2146,14 +2289,14 @@
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
-      <c r="F3">
+      <c r="H3">
         <v>7.1</v>
       </c>
       <c r="I3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -2163,11 +2306,11 @@
       <c r="C4" s="8">
         <v>45483.477777777778</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>15.7</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -2177,11 +2320,11 @@
       <c r="C5" s="8">
         <v>45483.522222222222</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -2195,7 +2338,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>47</v>
       </c>
@@ -2205,14 +2348,14 @@
       <c r="C7" s="8">
         <v>45483.675000000003</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>23</v>
       </c>
       <c r="I7">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -2222,11 +2365,11 @@
       <c r="C8" s="8">
         <v>45483.791666666664</v>
       </c>
-      <c r="F8">
+      <c r="H8">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -2236,11 +2379,11 @@
       <c r="C9" s="8">
         <v>45483.96875</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -2250,11 +2393,11 @@
       <c r="C10" s="8">
         <v>45484.378472222219</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>47</v>
       </c>
@@ -2264,11 +2407,11 @@
       <c r="C11" s="8">
         <v>45484.568055555559</v>
       </c>
-      <c r="F11">
+      <c r="H11">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -2278,11 +2421,11 @@
       <c r="C12" s="8">
         <v>45484.742361111108</v>
       </c>
-      <c r="F12">
+      <c r="H12">
         <v>33.5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>47</v>
       </c>
@@ -2292,11 +2435,11 @@
       <c r="C13" s="8">
         <v>45485.383333333331</v>
       </c>
-      <c r="F13">
+      <c r="H13">
         <v>36.5</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -2306,11 +2449,11 @@
       <c r="C14" s="8">
         <v>45485.506944444445</v>
       </c>
-      <c r="F14">
+      <c r="H14">
         <v>36.5</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>47</v>
       </c>
@@ -2320,11 +2463,11 @@
       <c r="C15" s="8">
         <v>45485.628472222219</v>
       </c>
-      <c r="F15">
+      <c r="H15">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -2334,11 +2477,11 @@
       <c r="C16" s="8">
         <v>45485.706944444442</v>
       </c>
-      <c r="F16">
+      <c r="H16">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -2348,8 +2491,22 @@
       <c r="C17" s="8">
         <v>45485.802083333336</v>
       </c>
-      <c r="F17">
+      <c r="H17">
         <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="8">
+        <v>45486.738194444442</v>
+      </c>
+      <c r="C18" s="8">
+        <v>45486.722222222219</v>
+      </c>
+      <c r="H18">
+        <v>54.5</v>
       </c>
     </row>
   </sheetData>
@@ -2360,21 +2517,21 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.453125" customWidth="1"/>
-    <col min="5" max="5" width="16.26953125" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>39</v>
       </c>
@@ -2403,7 +2560,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -2418,11 +2575,14 @@
       <c r="F2">
         <v>18.3</v>
       </c>
+      <c r="H2">
+        <v>18.3</v>
+      </c>
       <c r="I2">
         <v>8.1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -2437,11 +2597,14 @@
       <c r="F3">
         <v>23</v>
       </c>
+      <c r="H3">
+        <v>23</v>
+      </c>
       <c r="I3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>48</v>
       </c>
@@ -2454,8 +2617,11 @@
       <c r="F4">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>48</v>
       </c>
@@ -2468,8 +2634,11 @@
       <c r="F5">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -2482,8 +2651,11 @@
       <c r="F6">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -2496,11 +2668,14 @@
       <c r="F7">
         <v>31</v>
       </c>
+      <c r="H7">
+        <v>31</v>
+      </c>
       <c r="I7">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>48</v>
       </c>
@@ -2513,8 +2688,11 @@
       <c r="F8">
         <v>38</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -2527,8 +2705,11 @@
       <c r="F9">
         <v>39</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -2541,8 +2722,11 @@
       <c r="F10">
         <v>39</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H10">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -2555,8 +2739,11 @@
       <c r="F11">
         <v>41</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H11">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -2569,8 +2756,11 @@
       <c r="F12">
         <v>43</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H12">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -2583,8 +2773,11 @@
       <c r="F13">
         <v>46.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H13">
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -2597,8 +2790,11 @@
       <c r="F14">
         <v>48.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H14">
+        <v>48.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>48</v>
       </c>
@@ -2611,8 +2807,11 @@
       <c r="F15">
         <v>52</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -2625,8 +2824,11 @@
       <c r="F16">
         <v>51</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H16">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -2638,6 +2840,26 @@
       </c>
       <c r="F17">
         <v>58</v>
+      </c>
+      <c r="H17">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="8">
+        <v>45486.738194444442</v>
+      </c>
+      <c r="C18" s="8">
+        <v>45486.722222222219</v>
+      </c>
+      <c r="F18">
+        <v>66</v>
+      </c>
+      <c r="H18">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2650,19 +2872,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C3BE6E7-6F1A-8A47-B957-9C3F35EEC487}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.453125" customWidth="1"/>
-    <col min="5" max="5" width="16.26953125" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>39</v>
       </c>
@@ -2691,7 +2913,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -2706,11 +2928,14 @@
       <c r="F2">
         <v>4.9000000000000004</v>
       </c>
+      <c r="H2">
+        <v>4.9000000000000004</v>
+      </c>
       <c r="I2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -2725,8 +2950,11 @@
       <c r="F3">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H3">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -2739,8 +2967,11 @@
       <c r="F4">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H4">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -2753,11 +2984,14 @@
       <c r="F5">
         <v>19</v>
       </c>
+      <c r="H5">
+        <v>19</v>
+      </c>
       <c r="I5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -2770,11 +3004,14 @@
       <c r="F6">
         <v>22</v>
       </c>
+      <c r="H6">
+        <v>22</v>
+      </c>
       <c r="I6">
         <v>9.6</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -2787,8 +3024,11 @@
       <c r="F7">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -2801,11 +3041,14 @@
       <c r="F8">
         <v>28</v>
       </c>
+      <c r="H8">
+        <v>28</v>
+      </c>
       <c r="I8">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>50</v>
       </c>
@@ -2818,8 +3061,11 @@
       <c r="F9">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H9">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -2832,8 +3078,11 @@
       <c r="F10">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H10">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -2846,8 +3095,11 @@
       <c r="F11">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -2860,8 +3112,11 @@
       <c r="F12">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -2874,8 +3129,11 @@
       <c r="F13">
         <v>32</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H13">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -2888,8 +3146,11 @@
       <c r="F14">
         <v>33</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H14">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>50</v>
       </c>
@@ -2902,8 +3163,11 @@
       <c r="F15">
         <v>35</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -2916,8 +3180,11 @@
       <c r="F16">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H16">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>50</v>
       </c>
@@ -2930,8 +3197,11 @@
       <c r="F17">
         <v>37</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H17">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -2944,8 +3214,11 @@
       <c r="F18">
         <v>45.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H18">
+        <v>45.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -2958,8 +3231,11 @@
       <c r="F19">
         <v>55</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H19">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>50</v>
       </c>
@@ -2970,6 +3246,9 @@
         <v>45488.524305555555</v>
       </c>
       <c r="F20">
+        <v>60</v>
+      </c>
+      <c r="H20">
         <v>60</v>
       </c>
     </row>
@@ -2983,18 +3262,18 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.453125" customWidth="1"/>
-    <col min="5" max="5" width="16.26953125" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>39</v>
       </c>
@@ -3023,7 +3302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -3038,11 +3317,14 @@
       <c r="F2">
         <v>22</v>
       </c>
+      <c r="H2">
+        <v>22</v>
+      </c>
       <c r="I2">
         <v>4.8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>49</v>
       </c>
@@ -3057,11 +3339,14 @@
       <c r="F3">
         <v>25</v>
       </c>
+      <c r="H3">
+        <v>25</v>
+      </c>
       <c r="I3">
         <v>4.5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -3075,7 +3360,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -3088,11 +3373,14 @@
       <c r="F5">
         <v>30</v>
       </c>
+      <c r="H5">
+        <v>30</v>
+      </c>
       <c r="I5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -3105,8 +3393,11 @@
       <c r="F6">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -3119,8 +3410,11 @@
       <c r="F7">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H7">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -3133,8 +3427,11 @@
       <c r="F8">
         <v>38</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -3147,8 +3444,11 @@
       <c r="F9">
         <v>39</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -3161,8 +3461,11 @@
       <c r="F10">
         <v>38</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H10">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -3175,8 +3478,11 @@
       <c r="F11">
         <v>39</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H11">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -3189,8 +3495,11 @@
       <c r="F12">
         <v>44</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H12">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -3203,8 +3512,11 @@
       <c r="F13">
         <v>46.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H13">
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>49</v>
       </c>
@@ -3217,8 +3529,11 @@
       <c r="F14">
         <v>52</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H14">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -3231,11 +3546,14 @@
       <c r="F15">
         <v>59</v>
       </c>
+      <c r="H15">
+        <v>59</v>
+      </c>
       <c r="I15" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>49</v>
       </c>
